--- a/_CLUSTER/groups_time_area/Frost/combined/groups_counts_area4_Pg.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/combined/groups_counts_area4_Pg.xlsx
@@ -375,7 +375,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>112</v>
+        <v>21</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -383,7 +383,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>

--- a/_CLUSTER/groups_time_area/Frost/combined/groups_counts_area4_Pg.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/combined/groups_counts_area4_Pg.xlsx
@@ -375,7 +375,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -383,7 +383,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
